--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-邓佳华.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-邓佳华.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <r>
       <rPr>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t>何锐</t>
+  </si>
+  <si>
+    <t>上海真滇餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>乾石蒸汽石锅鱼</t>
+  </si>
+  <si>
+    <t>滇风来</t>
+  </si>
+  <si>
+    <t>李总</t>
   </si>
 </sst>
 </file>
@@ -1388,26 +1400,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="54" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2171,10 +2183,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2245,7 +2257,9 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <v>52</v>
+      </c>
       <c r="C2" s="7">
         <v>43095</v>
       </c>
@@ -2293,7 +2307,9 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6">
+        <v>52</v>
+      </c>
       <c r="C3" s="7">
         <v>43095</v>
       </c>
@@ -2341,7 +2357,9 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6">
+        <v>52</v>
+      </c>
       <c r="C4" s="7">
         <v>43095</v>
       </c>
@@ -2389,7 +2407,9 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>52</v>
+      </c>
       <c r="C5" s="7">
         <v>43095</v>
       </c>
@@ -2437,7 +2457,9 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>52</v>
+      </c>
       <c r="C6" s="7">
         <v>43095</v>
       </c>
@@ -2485,7 +2507,9 @@
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>52</v>
+      </c>
       <c r="C7" s="7">
         <v>43095</v>
       </c>
@@ -2533,7 +2557,9 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>52</v>
+      </c>
       <c r="C8" s="7">
         <v>43095</v>
       </c>
@@ -2577,11 +2603,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="6">
+        <v>52</v>
+      </c>
       <c r="C9" s="7">
         <v>43095</v>
       </c>
@@ -2624,12 +2652,18 @@
       <c r="P9" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="6">
+        <v>52</v>
+      </c>
       <c r="C10" s="7">
         <v>43095</v>
       </c>
@@ -2677,7 +2711,9 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="6">
+        <v>52</v>
+      </c>
       <c r="C11" s="7">
         <v>43095</v>
       </c>
@@ -2725,7 +2761,9 @@
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="6">
+        <v>52</v>
+      </c>
       <c r="C12" s="7">
         <v>43095</v>
       </c>
@@ -2773,20 +2811,22 @@
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="6">
+        <v>52</v>
+      </c>
       <c r="C13" s="7">
         <v>43095</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="8">
@@ -2821,17 +2861,19 @@
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="6">
+        <v>52</v>
+      </c>
       <c r="C14" s="7">
         <v>43095</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -2869,17 +2911,19 @@
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="6">
+        <v>52</v>
+      </c>
       <c r="C15" s="7">
         <v>43095</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2917,17 +2961,19 @@
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="6">
+        <v>52</v>
+      </c>
       <c r="C16" s="7">
         <v>43095</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2965,17 +3011,19 @@
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="6">
+        <v>52</v>
+      </c>
       <c r="C17" s="7">
         <v>43095</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -3013,17 +3061,19 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="6">
+        <v>52</v>
+      </c>
       <c r="C18" s="7">
         <v>43095</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -3061,17 +3111,19 @@
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="6">
+        <v>52</v>
+      </c>
       <c r="C19" s="7">
         <v>43095</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -3109,20 +3161,22 @@
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="6">
+        <v>52</v>
+      </c>
       <c r="C20" s="7">
         <v>43095</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>79</v>
       </c>
       <c r="H20" s="8">
@@ -3157,20 +3211,22 @@
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="6">
+        <v>52</v>
+      </c>
       <c r="C21" s="7">
         <v>43095</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="8">
@@ -3205,26 +3261,28 @@
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="6">
+        <v>52</v>
+      </c>
       <c r="C22" s="7">
         <v>43095</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>76119272</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -3250,382 +3308,414 @@
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="1:16">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="15"/>
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7">
+        <v>43095</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11">
+        <v>76118389</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="5">
+        <v>13636444353</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="18">
+        <v>17316307786</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:16">
       <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="15"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" ht="15" customHeight="1" spans="1:16">
       <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="15"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:16">
       <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="15"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:16">
       <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="18"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="15"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="13"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:16">
       <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="15"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:16">
       <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="18"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="15"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:16">
       <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="18"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="15"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="11"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="15"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:16">
       <c r="A31" s="5"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="15"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="19"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="15"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:16">
       <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:16">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="11"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="18"/>
-      <c r="P33" s="15"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:16">
       <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="19"/>
-      <c r="N34" s="11"/>
+      <c r="N34" s="10"/>
       <c r="O34" s="19"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="13"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:16">
       <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="15"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="13"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:16">
       <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="15"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="13"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:16">
       <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="15"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="13"/>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:16">
       <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="18"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="15"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:16">
       <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="18"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="15"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="19"/>
-      <c r="N39" s="11"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="19"/>
-      <c r="P39" s="15"/>
+      <c r="P39" s="13"/>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:16">
       <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="15"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:16">
       <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="18"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="15"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:16">
       <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="15"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:16">
       <c r="A43" s="5"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q43"/>
@@ -3633,13 +3723,13 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A11 A12 A22 A2:A10 A13:A21 A23:A43 A44:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A11 A12 A22 A23 A2:A10 A13:A21 A24:A43 A44:A1048576">
       <formula1>"北京直客,北京大客户,北京饮食通,上海,成都,济南,南京,重庆,杭州,武汉,长沙,深圳,西安,代理"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D23:D26 D44:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D24:D26 D44:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
